--- a/medicine/Sexualité et sexologie/Les_Roses_d'Acier/Les_Roses_d'Acier.xlsx
+++ b/medicine/Sexualité et sexologie/Les_Roses_d'Acier/Les_Roses_d'Acier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Roses_d%27Acier</t>
+          <t>Les_Roses_d'Acier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roses d'Acier – Alliance de femmes est un collectif de travailleuses du sexe chinoises en situation irrégulière en France créé en 2015 à Paris.  
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Roses_d%27Acier</t>
+          <t>Les_Roses_d'Acier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2014 : lettre ouverte signée par une centaine d'entre elles, adressée aux élus du quartier de Belleville, situé à la frontières des 10e, 11e, 19e et 20e arrondissements de Paris. Elles dénoncent la répression et le harcèlement policier qui les visent[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2014 : lettre ouverte signée par une centaine d'entre elles, adressée aux élus du quartier de Belleville, situé à la frontières des 10e, 11e, 19e et 20e arrondissements de Paris. Elles dénoncent la répression et le harcèlement policier qui les visent,.
 Elles sont reçues par Stéphane Bribard, adjoint au maire du 10e arrondissement, accompagnées par des membres du Lotus Bus, un programme de Médecins du Monde (MDM) de promotion de la santé et des droits des travailleuses du sexe chinoises à Paris.
-En décembre 2014, elles organisent leur première manifestation sur le Boulevard de la Villette, entre les stations de métro Belleville et Jaurès. Elles sont une centaine à manifester, masquées, un flambeau à la main, subissant les sifflés et railleries. Le lendemain, elles font l'objet d'insultes dans la presse des Chinois de Paris[1].
-Une nouvelle manifestation est organisée le 11 juin par le syndicat du travail sexuel (Strass)[3].
-En juillet 2015, plusieurs associations interpellent le procureur de Paris dans une lettre ouverte à propos du « harcèlement policier » dont sont victimes les travailleuses du sexe chinoises parisiennes. Elle lui reprochent de « prêter main-forte », déplorant des moyens consistant « en des gestes humiliants et des pratiques coercitives injustifiées et vexatoires que l'autorité judiciaire ne saurait assumer ni couvrir ». Les signataires comptent parmi elles la Fédération des associations de solidarité avec tous·te·s les immigré·e·s (Fasti), la Ligue des droits de l'Homme, le Planning familial, le Syndicat de la magistrature et le Strass[2]. 
-En 2019, trois travailleuses du sexe chinoises sont assassinées à Paris[4].  
-En mars 2023, le journaliste Rémi Yang, collaborateur notamment de Mediapart, Society et Streetpress publie chez Marchialy, Les Roses d'acier: Chronique d'un collectif de travailleuses du sexe chinoises à Paris, un ouvrage où il décrit le travail mené par le collectif[5]. 
-Le nom Roses d'Acier fait référence à une célèbre chanson chinoise[5]. 
+En décembre 2014, elles organisent leur première manifestation sur le Boulevard de la Villette, entre les stations de métro Belleville et Jaurès. Elles sont une centaine à manifester, masquées, un flambeau à la main, subissant les sifflés et railleries. Le lendemain, elles font l'objet d'insultes dans la presse des Chinois de Paris.
+Une nouvelle manifestation est organisée le 11 juin par le syndicat du travail sexuel (Strass).
+En juillet 2015, plusieurs associations interpellent le procureur de Paris dans une lettre ouverte à propos du « harcèlement policier » dont sont victimes les travailleuses du sexe chinoises parisiennes. Elle lui reprochent de « prêter main-forte », déplorant des moyens consistant « en des gestes humiliants et des pratiques coercitives injustifiées et vexatoires que l'autorité judiciaire ne saurait assumer ni couvrir ». Les signataires comptent parmi elles la Fédération des associations de solidarité avec tous·te·s les immigré·e·s (Fasti), la Ligue des droits de l'Homme, le Planning familial, le Syndicat de la magistrature et le Strass. 
+En 2019, trois travailleuses du sexe chinoises sont assassinées à Paris.  
+En mars 2023, le journaliste Rémi Yang, collaborateur notamment de Mediapart, Society et Streetpress publie chez Marchialy, Les Roses d'acier: Chronique d'un collectif de travailleuses du sexe chinoises à Paris, un ouvrage où il décrit le travail mené par le collectif. 
+Le nom Roses d'Acier fait référence à une célèbre chanson chinoise. 
 </t>
         </is>
       </c>
